--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -30,50 +30,60 @@
     <t>Loại</t>
   </si>
   <si>
-    <t>Intel Core i7-4960X</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>AMD Athlon 64 X2 5200+</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Duo E6600</t>
-  </si>
-  <si>
     <t>AMD Athlon II X2 245</t>
   </si>
   <si>
     <t>AMD Athlon II X2 250</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel Core i5-3210M </t>
-  </si>
-  <si>
-    <t>Intel Pentium G3220</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Quad Q6700</t>
-  </si>
-  <si>
-    <t>Intel Core i7-3970X Extreme Edition</t>
-  </si>
-  <si>
-    <t>Intel Core i7-4930K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-4931K </t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HDD, 500 GB</t>
+  </si>
+  <si>
+    <t>15.6 inch, HD (1366 x 768 pixels)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>NVIDIA® GeForce® GT 750M, 2 GB</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AMD Athlon II X2 246</t>
+  </si>
+  <si>
+    <t>Intel Core 55555555</t>
+  </si>
+  <si>
+    <t>Intel Core 33333332</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Quad xxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,9 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -170,6 +177,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,81 +496,87 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,41 +584,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,73 +624,18 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>31</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="15600" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,22 +51,22 @@
     <t>D</t>
   </si>
   <si>
-    <t>NVIDIA® GeForce® GT 750M, 2 GB</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>AMD Athlon II X2 246</t>
-  </si>
-  <si>
     <t>Intel Core 55555555</t>
   </si>
   <si>
-    <t>Intel Core 33333332</t>
-  </si>
-  <si>
     <t>Intel Core 2 Quad xxxx</t>
+  </si>
+  <si>
+    <t>Intel, Celeron, N1292, 1.80 GHz</t>
+  </si>
+  <si>
+    <t>DDR3L (2 khe RAM), 7 GB</t>
+  </si>
+  <si>
+    <t>Intel, Celeron, N2920, 9.86 GHz</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -610,13 +610,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
@@ -66,7 +66,7 @@
     <t>DDR3L (2 khe RAM), 7 GB</t>
   </si>
   <si>
-    <t>Intel, Celeron, N2920, 9.86 GHz</t>
+    <t>DDR3L (2 khe RAM), 8 GB</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -45,28 +45,19 @@
     <t>HDD, 500 GB</t>
   </si>
   <si>
-    <t>15.6 inch, HD (1366 x 768 pixels)</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Intel Core 55555555</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Quad xxxx</t>
-  </si>
-  <si>
-    <t>Intel, Celeron, N1292, 1.80 GHz</t>
-  </si>
-  <si>
-    <t>DDR3L (2 khe RAM), 7 GB</t>
-  </si>
-  <si>
     <t>DDR3L (2 khe RAM), 8 GB</t>
+  </si>
+  <si>
+    <t>VGA 111141</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel 1111142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel 1111143</t>
+  </si>
+  <si>
+    <t>Intel Core 2 Z</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -528,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
@@ -556,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -589,7 +580,9 @@
       <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -610,21 +603,19 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>28</v>
